--- a/【管理】画面設計書_ユーザ詳細.xlsx
+++ b/【管理】画面設計書_ユーザ詳細.xlsx
@@ -738,18 +738,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -813,6 +801,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -831,16 +831,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152961</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -849,7 +849,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="3114675"/>
+          <a:off x="2200275" y="4561914"/>
           <a:ext cx="523875" cy="352986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -900,16 +900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152961</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -918,7 +918,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5972175" y="3114675"/>
+          <a:off x="1257300" y="4561914"/>
           <a:ext cx="523875" cy="352986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -980,13 +980,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1049,13 +1049,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1106,13 +1106,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1163,13 +1163,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1220,13 +1220,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1277,13 +1277,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1334,13 +1334,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1389,15 +1389,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1407,7 +1407,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5800725" y="4352925"/>
+          <a:off x="1171575" y="4352925"/>
           <a:ext cx="209550" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1446,16 +1446,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1464,7 +1464,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="4343400"/>
+          <a:off x="2095500" y="4419600"/>
           <a:ext cx="209550" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1505,13 +1505,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1560,25 +1560,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152961</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="10115550"/>
+          <a:off x="1257300" y="13239750"/>
           <a:ext cx="523875" cy="352986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1631,23 +1631,23 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="7905751"/>
+          <a:off x="2828925" y="11830051"/>
           <a:ext cx="1790700" cy="209549"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1698,25 +1698,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="9220200"/>
+          <a:off x="952500" y="13020675"/>
           <a:ext cx="400050" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2737,7 +2737,7 @@
   <dimension ref="A1:AE69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
@@ -2933,12 +2933,12 @@
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2964,10 +2964,10 @@
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -2993,10 +2993,10 @@
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -3022,10 +3022,10 @@
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -3051,10 +3051,10 @@
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -3105,29 +3105,29 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="42"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="38"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
@@ -3136,25 +3136,25 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="45"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="41"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
@@ -3163,29 +3163,29 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="40" t="s">
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="42"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="38"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
@@ -3194,25 +3194,25 @@
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="45"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="41"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
@@ -3221,27 +3221,27 @@
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
-      <c r="E18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="27"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
@@ -3250,25 +3250,27 @@
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="33"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
@@ -3277,150 +3279,101 @@
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
-      <c r="E20" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="7"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="7"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="7"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="7"/>
+    <row r="21" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="10"/>
+    </row>
+    <row r="23" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="7"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="4"/>
+    </row>
+    <row r="25" spans="2:28" ht="24" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
+      <c r="C25" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -3468,7 +3421,9 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
+      <c r="V26" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
@@ -3480,10 +3435,12 @@
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="E27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -3509,10 +3466,10 @@
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -3538,10 +3495,10 @@
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -3563,94 +3520,143 @@
       <c r="AA29" s="6"/>
       <c r="AB29" s="7"/>
     </row>
-    <row r="30" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="10"/>
-    </row>
-    <row r="32" spans="2:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="7"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="7"/>
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="4"/>
-    </row>
-    <row r="34" spans="2:28" ht="24" x14ac:dyDescent="0.15">
+      <c r="B33" s="5"/>
+      <c r="E33" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="5"/>
-      <c r="C34" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="41"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
@@ -3659,29 +3665,29 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="W35" s="6"/>
+      <c r="E35" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="38"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
@@ -3690,29 +3696,25 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="41"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
@@ -3721,27 +3723,27 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
+      <c r="E37" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="23"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
@@ -3750,27 +3752,25 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="29"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
@@ -3779,27 +3779,27 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
+      <c r="E39" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
@@ -3808,27 +3808,25 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
@@ -3837,6 +3835,8 @@
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3864,29 +3864,27 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B42" s="5"/>
-      <c r="E42" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="41"/>
-      <c r="W42" s="42"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
@@ -3895,25 +3893,27 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B43" s="5"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="45"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
@@ -3922,29 +3922,27 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B44" s="5"/>
-      <c r="E44" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="41"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="41"/>
-      <c r="V44" s="41"/>
-      <c r="W44" s="42"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
@@ -3953,25 +3951,27 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B45" s="5"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="45"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
@@ -4118,26 +4118,26 @@
       <c r="K52" s="20"/>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
-      <c r="N52" s="22" t="s">
+      <c r="N52" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="24"/>
-      <c r="AA52" s="24"/>
-      <c r="AB52" s="24"/>
-      <c r="AC52" s="24"/>
-      <c r="AD52" s="24"/>
-      <c r="AE52" s="23"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+      <c r="Y52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="45"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="45"/>
+      <c r="AD52" s="45"/>
+      <c r="AE52" s="44"/>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B53" s="20">
@@ -4146,40 +4146,40 @@
       <c r="C53" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
       <c r="J53" s="20" t="s">
         <v>44</v>
       </c>
       <c r="K53" s="20"/>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
-      <c r="N53" s="21" t="s">
+      <c r="N53" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="21"/>
-      <c r="Z53" s="21"/>
-      <c r="AA53" s="21"/>
-      <c r="AB53" s="21"/>
-      <c r="AC53" s="21"/>
-      <c r="AD53" s="21"/>
-      <c r="AE53" s="21"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="42"/>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B54" s="20">
@@ -4188,40 +4188,40 @@
       <c r="C54" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
       <c r="J54" s="20" t="s">
         <v>21</v>
       </c>
       <c r="K54" s="20"/>
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
-      <c r="N54" s="21" t="s">
+      <c r="N54" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
-      <c r="AE54" s="21"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B55" s="20">
@@ -4230,40 +4230,40 @@
       <c r="C55" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
       <c r="J55" s="20" t="s">
         <v>49</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
-      <c r="N55" s="21" t="s">
+      <c r="N55" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="21"/>
-      <c r="AA55" s="21"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
-      <c r="AE55" s="21"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B56" s="20">
@@ -4272,40 +4272,40 @@
       <c r="C56" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
       <c r="J56" s="20" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="20"/>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
-      <c r="N56" s="21" t="s">
+      <c r="N56" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="21"/>
-      <c r="AA56" s="21"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="42"/>
+      <c r="AB56" s="42"/>
+      <c r="AC56" s="42"/>
+      <c r="AD56" s="42"/>
+      <c r="AE56" s="42"/>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B57" s="20">
@@ -4314,40 +4314,40 @@
       <c r="C57" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
       <c r="J57" s="20" t="s">
         <v>49</v>
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
-      <c r="N57" s="21" t="s">
+      <c r="N57" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="O57" s="21"/>
-      <c r="P57" s="21"/>
-      <c r="Q57" s="21"/>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="21"/>
-      <c r="AB57" s="21"/>
-      <c r="AC57" s="21"/>
-      <c r="AD57" s="21"/>
-      <c r="AE57" s="21"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="42"/>
+      <c r="AB57" s="42"/>
+      <c r="AC57" s="42"/>
+      <c r="AD57" s="42"/>
+      <c r="AE57" s="42"/>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B58" s="20">
@@ -4356,40 +4356,40 @@
       <c r="C58" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
       <c r="J58" s="20" t="s">
         <v>49</v>
       </c>
       <c r="K58" s="20"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
-      <c r="N58" s="21" t="s">
+      <c r="N58" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
-      <c r="X58" s="21"/>
-      <c r="Y58" s="21"/>
-      <c r="Z58" s="21"/>
-      <c r="AA58" s="21"/>
-      <c r="AB58" s="21"/>
-      <c r="AC58" s="21"/>
-      <c r="AD58" s="21"/>
-      <c r="AE58" s="21"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="42"/>
+      <c r="AB58" s="42"/>
+      <c r="AC58" s="42"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="42"/>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B59" s="20">
@@ -4398,40 +4398,40 @@
       <c r="C59" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="D59" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
       <c r="J59" s="20" t="s">
         <v>44</v>
       </c>
       <c r="K59" s="20"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
-      <c r="N59" s="21" t="s">
+      <c r="N59" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
-      <c r="X59" s="21"/>
-      <c r="Y59" s="21"/>
-      <c r="Z59" s="21"/>
-      <c r="AA59" s="21"/>
-      <c r="AB59" s="21"/>
-      <c r="AC59" s="21"/>
-      <c r="AD59" s="21"/>
-      <c r="AE59" s="21"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="42"/>
+      <c r="AA59" s="42"/>
+      <c r="AB59" s="42"/>
+      <c r="AC59" s="42"/>
+      <c r="AD59" s="42"/>
+      <c r="AE59" s="42"/>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B60" s="20">
@@ -4440,40 +4440,40 @@
       <c r="C60" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
       <c r="J60" s="20" t="s">
         <v>44</v>
       </c>
       <c r="K60" s="20"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
-      <c r="N60" s="21" t="s">
+      <c r="N60" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="O60" s="21"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
-      <c r="X60" s="21"/>
-      <c r="Y60" s="21"/>
-      <c r="Z60" s="21"/>
-      <c r="AA60" s="21"/>
-      <c r="AB60" s="21"/>
-      <c r="AC60" s="21"/>
-      <c r="AD60" s="21"/>
-      <c r="AE60" s="21"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="42"/>
+      <c r="AB60" s="42"/>
+      <c r="AC60" s="42"/>
+      <c r="AD60" s="42"/>
+      <c r="AE60" s="42"/>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B61" s="20">
@@ -4482,40 +4482,40 @@
       <c r="C61" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
       <c r="J61" s="20" t="s">
         <v>59</v>
       </c>
       <c r="K61" s="20"/>
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
-      <c r="N61" s="21" t="s">
+      <c r="N61" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
-      <c r="AA61" s="21"/>
-      <c r="AB61" s="21"/>
-      <c r="AC61" s="21"/>
-      <c r="AD61" s="21"/>
-      <c r="AE61" s="21"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="42"/>
+      <c r="AA61" s="42"/>
+      <c r="AB61" s="42"/>
+      <c r="AC61" s="42"/>
+      <c r="AD61" s="42"/>
+      <c r="AE61" s="42"/>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B62" s="20">
@@ -4524,40 +4524,40 @@
       <c r="C62" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
       <c r="J62" s="20" t="s">
         <v>44</v>
       </c>
       <c r="K62" s="20"/>
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
-      <c r="N62" s="21" t="s">
+      <c r="N62" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21"/>
-      <c r="AB62" s="21"/>
-      <c r="AC62" s="21"/>
-      <c r="AD62" s="21"/>
-      <c r="AE62" s="21"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
+      <c r="AA62" s="42"/>
+      <c r="AB62" s="42"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="42"/>
+      <c r="AE62" s="42"/>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
@@ -4577,36 +4577,36 @@
         <v>29</v>
       </c>
       <c r="G65" s="20"/>
-      <c r="H65" s="22" t="s">
+      <c r="H65" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="22" t="s">
+      <c r="I65" s="44"/>
+      <c r="J65" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="K65" s="24"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="22" t="s">
+      <c r="K65" s="45"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="N65" s="24"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="22" t="s">
+      <c r="N65" s="45"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="24"/>
-      <c r="V65" s="24"/>
-      <c r="W65" s="24"/>
-      <c r="X65" s="24"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="24"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="23"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="45"/>
+      <c r="U65" s="45"/>
+      <c r="V65" s="45"/>
+      <c r="W65" s="45"/>
+      <c r="X65" s="45"/>
+      <c r="Y65" s="45"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="45"/>
+      <c r="AB65" s="45"/>
+      <c r="AC65" s="44"/>
     </row>
     <row r="66" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B66" s="20">
@@ -4619,30 +4619,30 @@
       <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
-      <c r="H66" s="22" t="s">
+      <c r="H66" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I66" s="23"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="23"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="45"/>
+      <c r="V66" s="45"/>
+      <c r="W66" s="45"/>
+      <c r="X66" s="45"/>
+      <c r="Y66" s="45"/>
+      <c r="Z66" s="45"/>
+      <c r="AA66" s="45"/>
+      <c r="AB66" s="45"/>
+      <c r="AC66" s="44"/>
     </row>
     <row r="67" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B67" s="20">
@@ -4655,30 +4655,30 @@
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
-      <c r="H67" s="22" t="s">
+      <c r="H67" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="24"/>
-      <c r="T67" s="24"/>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="24"/>
-      <c r="Y67" s="24"/>
-      <c r="Z67" s="24"/>
-      <c r="AA67" s="24"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="23"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="45"/>
+      <c r="U67" s="45"/>
+      <c r="V67" s="45"/>
+      <c r="W67" s="45"/>
+      <c r="X67" s="45"/>
+      <c r="Y67" s="45"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="45"/>
+      <c r="AB67" s="45"/>
+      <c r="AC67" s="44"/>
     </row>
     <row r="68" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B68" s="20">
@@ -4691,30 +4691,30 @@
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
-      <c r="H68" s="22" t="s">
+      <c r="H68" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I68" s="23"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
-      <c r="T68" s="24"/>
-      <c r="U68" s="24"/>
-      <c r="V68" s="24"/>
-      <c r="W68" s="24"/>
-      <c r="X68" s="24"/>
-      <c r="Y68" s="24"/>
-      <c r="Z68" s="24"/>
-      <c r="AA68" s="24"/>
-      <c r="AB68" s="24"/>
-      <c r="AC68" s="23"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="45"/>
+      <c r="U68" s="45"/>
+      <c r="V68" s="45"/>
+      <c r="W68" s="45"/>
+      <c r="X68" s="45"/>
+      <c r="Y68" s="45"/>
+      <c r="Z68" s="45"/>
+      <c r="AA68" s="45"/>
+      <c r="AB68" s="45"/>
+      <c r="AC68" s="44"/>
     </row>
     <row r="69" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B69" s="20">
@@ -4727,38 +4727,33 @@
       <c r="E69" s="20"/>
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
-      <c r="H69" s="22" t="s">
+      <c r="H69" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="23"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="45"/>
+      <c r="U69" s="45"/>
+      <c r="V69" s="45"/>
+      <c r="W69" s="45"/>
+      <c r="X69" s="45"/>
+      <c r="Y69" s="45"/>
+      <c r="Z69" s="45"/>
+      <c r="AA69" s="45"/>
+      <c r="AB69" s="45"/>
+      <c r="AC69" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:J2"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="M65:O65"/>
     <mergeCell ref="P65:AC65"/>
@@ -4778,10 +4773,6 @@
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="N55:AE55"/>
     <mergeCell ref="B55:C55"/>
@@ -4795,52 +4786,36 @@
     <mergeCell ref="N52:AE52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="N53:AE53"/>
-    <mergeCell ref="E8:H12"/>
-    <mergeCell ref="E14:J15"/>
-    <mergeCell ref="K14:W15"/>
-    <mergeCell ref="E16:J17"/>
-    <mergeCell ref="K16:W17"/>
-    <mergeCell ref="E18:J19"/>
-    <mergeCell ref="K18:W19"/>
-    <mergeCell ref="E20:J21"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="E27:H31"/>
+    <mergeCell ref="E33:J34"/>
+    <mergeCell ref="K33:W34"/>
+    <mergeCell ref="E35:J36"/>
+    <mergeCell ref="K35:W36"/>
+    <mergeCell ref="E37:J38"/>
+    <mergeCell ref="K37:W38"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:J2"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:T1"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="J56:M56"/>
     <mergeCell ref="N56:AE56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="J57:M57"/>
     <mergeCell ref="N57:AE57"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="N61:AE61"/>
-    <mergeCell ref="E36:H40"/>
-    <mergeCell ref="E42:J43"/>
-    <mergeCell ref="K42:W43"/>
-    <mergeCell ref="E44:J45"/>
-    <mergeCell ref="K44:W45"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="N59:AE59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="N60:AE60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="N58:AE58"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="D52:I52"/>
     <mergeCell ref="D53:I53"/>
     <mergeCell ref="D54:I54"/>
     <mergeCell ref="D55:I55"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="N62:AE62"/>
+    <mergeCell ref="E39:J40"/>
+    <mergeCell ref="K39:W40"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="F69:G69"/>
@@ -4861,6 +4836,31 @@
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="E8:H12"/>
+    <mergeCell ref="E14:J15"/>
+    <mergeCell ref="K14:W15"/>
+    <mergeCell ref="E16:J17"/>
+    <mergeCell ref="K16:W17"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="N62:AE62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="J61:M61"/>
+    <mergeCell ref="N61:AE61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="N59:AE59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="N60:AE60"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="N58:AE58"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
